--- a/Controller_PCB_Wired/Controller_Wired_BOM.xlsx
+++ b/Controller_PCB_Wired/Controller_Wired_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Duarte\Documents\GitHub\Controller_Arduino\Controller_PCB_Wired\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77899861-9EB9-4551-8F62-4E75DC6541B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A318C9-5B3B-456D-AFC7-3D9BC685D53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{341EB148-9EB0-4B6C-BF4D-0B5668486A6B}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>Price per piece</t>
   </si>
   <si>
-    <t>https://mauser.pt/catalog/product_info.php?cPath=324_1401_1629&amp;products_id=010-1174</t>
+    <t>https://www.farnell.com/datasheets/2343587.pdf</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C44CBAA-1E50-4C3C-A35A-38537C9CA70C}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,12 +759,11 @@
     <hyperlink ref="I4" r:id="rId2" xr:uid="{B3F206C9-4F86-4A88-84C0-802DCC63B1E6}"/>
     <hyperlink ref="I2" r:id="rId3" xr:uid="{C9EF186A-006D-442F-9DB6-E6412B962F25}"/>
     <hyperlink ref="H2" r:id="rId4" xr:uid="{80377FCA-BC22-43EC-A8E5-2F812C714C8E}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{E38504AA-1697-4E6C-B1FA-74B09528F370}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{6F4647C7-5BF6-4DF9-BC60-FFA6D8D96339}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{6F4647C7-5BF6-4DF9-BC60-FFA6D8D96339}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
